--- a/templates/VocExcel-template-080-GA.xlsx
+++ b/templates/VocExcel-template-080-GA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/work/kurrawong/VocExcel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFD8078-48E7-FA4F-9A57-C5E8DA196FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E21D1D-D899-3F43-A9A7-0044A3330D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="700" windowWidth="56960" windowHeight="28040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46740" yWindow="500" windowWidth="40920" windowHeight="27380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="183">
   <si>
     <t>Version:</t>
   </si>
@@ -916,25 +916,6 @@
   <si>
     <t>Classification of this vocab according to other vocabs or simple keywords.
 Separate multiple IRIs or keywords with commas</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Catalogue PID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = A persistent identifier for this vocabulary in your catalogue system. Could be an IRI, a DOI or a numerical or textual ID, if this vocab has one</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1537,6 +1518,121 @@
   </si>
   <si>
     <t>A textual ID for this Concept. Must be letters and numbers and simple punctuation like full stop only.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>* = The definition of the Concept. Plain text only but paragraphs may be separated by newlines</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>* = The definition of the vocabulary. Plain text only but paragraphs may be separated by newlines</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve">eCat ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>= The persistent identifier for this vocabulary in the eCat catalogue system.
+Starting https://pid.geoscience.gov.au/dataset/…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = An example of this Concept. Plain text only, which may be prose or RDF data, able to be separated into paragraphs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Image URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = a URL to an image that is avaiable online</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Image Embedded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = A small - a few KB - image to be embedeed in the vocab for this Concept. Add the image file to the Cell: Insert &gt; Pictures &gt;Place in Cell &gt; Picture from File…</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2359,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
@@ -2370,7 +2466,7 @@
     <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="59"/>
       <c r="B5" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
@@ -2400,7 +2496,7 @@
     <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A7" s="59"/>
       <c r="B7" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -2414,7 +2510,7 @@
     <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A8" s="59"/>
       <c r="B8" s="62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="60" t="s">
@@ -2445,7 +2541,7 @@
     <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A10" s="59"/>
       <c r="B10" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="60"/>
@@ -2459,7 +2555,7 @@
     <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A11" s="59"/>
       <c r="B11" s="62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="60"/>
@@ -2485,7 +2581,7 @@
     <row r="13" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="59"/>
       <c r="B13" s="60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="56"/>
@@ -2499,7 +2595,7 @@
     <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A14" s="59"/>
       <c r="B14" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -3593,10 +3689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E056D66-684B-EA44-9D39-98A26FD38952}">
-  <dimension ref="A2:C64"/>
+  <dimension ref="A2:C68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" x14ac:dyDescent="0.15"/>
@@ -3748,88 +3844,88 @@
     <row r="24" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
       <c r="B25" s="7" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B38" s="7" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -3845,124 +3941,144 @@
     </row>
     <row r="41" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="52" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:2" ht="86" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="38" x14ac:dyDescent="0.15">
+      <c r="B51" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:2" ht="86" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="88" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="7" t="s">
+    <row r="54" spans="1:2" ht="88" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="7" t="s">
+    <row r="55" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="7" t="s">
+    <row r="56" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="57" x14ac:dyDescent="0.15">
-      <c r="B53" s="7" t="s">
+    <row r="57" spans="1:2" ht="57" x14ac:dyDescent="0.15">
+      <c r="B57" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="38" x14ac:dyDescent="0.15">
-      <c r="B54" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="38" x14ac:dyDescent="0.15">
-      <c r="B55" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="7"/>
-    </row>
-    <row r="57" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="14" t="s">
+    <row r="58" spans="1:2" ht="38" x14ac:dyDescent="0.15">
+      <c r="B58" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="38" x14ac:dyDescent="0.15">
+      <c r="B59" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="7" t="s">
+      <c r="B61" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="14" t="s">
-        <v>31</v>
-      </c>
+    <row r="62" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3983,7 +4099,7 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4082,7 +4198,7 @@
       </c>
       <c r="B8" s="54"/>
       <c r="C8" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>24</v>
@@ -4094,7 +4210,7 @@
       </c>
       <c r="B9" s="51"/>
       <c r="C9" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>24</v>
@@ -4106,7 +4222,7 @@
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>25</v>
@@ -4118,7 +4234,7 @@
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>11</v>
@@ -4130,7 +4246,7 @@
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>3</v>
@@ -4145,7 +4261,7 @@
         <v>86</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -4154,7 +4270,7 @@
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>93</v>
@@ -4166,7 +4282,7 @@
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>94</v>
@@ -4190,7 +4306,7 @@
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>83</v>
@@ -4198,14 +4314,14 @@
     </row>
     <row r="18" spans="1:4" ht="38" x14ac:dyDescent="0.15">
       <c r="A18" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" s="55"/>
       <c r="C18" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -7183,9 +7299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B2936F-06B6-364A-893D-D48542B6FA7F}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -7244,13 +7360,13 @@
         <v>71</v>
       </c>
       <c r="J2" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="L2" s="31" t="s">
         <v>169</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="271" customHeight="1" x14ac:dyDescent="0.15">
@@ -7258,37 +7374,37 @@
         <v>87</v>
       </c>
       <c r="B3" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>129</v>
-      </c>
       <c r="D3" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>86</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J3" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="L3" s="60" t="s">
         <v>172</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -7638,7 +7754,7 @@
         <v>63</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="20" customFormat="1" ht="266" x14ac:dyDescent="0.15">
@@ -7651,10 +7767,10 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
@@ -7770,16 +7886,16 @@
     <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" s="63"/>
       <c r="B3" s="64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.15">
@@ -9305,6 +9421,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CE8352A0AF1CD4AB9B3521FB05BB06E" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad776eddaa4c2424eb5fa9eef7239753">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcd33c6e-30cb-4633-b8ec-d716de95c77b" xmlns:ns3="cc9fd5b5-cf46-4eda-9201-7118bc1c1603" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03cb13ad1de5dce1c8a6420670aeaf6" ns2:_="" ns3:_="">
     <xsd:import namespace="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
@@ -9541,16 +9666,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C5B03A-DD20-4DDE-9069-342AD74757E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9567,12 +9691,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/templates/VocExcel-template-080-GA.xlsx
+++ b/templates/VocExcel-template-080-GA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/work/kurrawong/VocExcel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E21D1D-D899-3F43-A9A7-0044A3330D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EEAF50-A665-4C44-B7A1-9645F483EF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46740" yWindow="500" windowWidth="40920" windowHeight="27380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,10 +498,6 @@
     <t>https://w3id.org/profile/vocpub/spec</t>
   </si>
   <si>
-    <t>This workbook is designed to allow for simple the creation of vocabularies according to the VocPub Profile of the SKOS data model. It doesn't allow you to do everything SKOS can do, but it can help you create most of the core SKOS elements - a ConceptsScheme for the vocabulary, Concepts, their labels and relations and grouping of Concepts in Collections.
-To understand what particular properties are, e.g. skos:exactMatch, or how to use them, read the notes here, the per-cell notes in some of the Sheets themselves, e.g. the Concept Scheme sheet, or in the VocPub &amp; SKOS documentation at https://w3id.org/profile/vocpub/spec, https://www.w3.org/TR/skos-primer/ &amp; https://www.w3.org/TR/skos-reference/.</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -1633,6 +1629,10 @@
       </rPr>
       <t xml:space="preserve"> = A small - a few KB - image to be embedeed in the vocab for this Concept. Add the image file to the Cell: Insert &gt; Pictures &gt;Place in Cell &gt; Picture from File…</t>
     </r>
+  </si>
+  <si>
+    <t>This workbook is designed to allow for the creation of simple vocabularies according to the VocPub Profile of the SKOS data model. It doesn't allow you to do everything SKOS can do, but it can help you create most of the core SKOS elements - a ConceptsScheme for the vocabulary, Concepts, their labels and relations and grouping of Concepts in Collections.
+To understand what particular properties are, e.g. skos:exactMatch, or how to use them, read the notes here, the per-cell notes in some of the Sheets themselves, e.g. the Concept Scheme sheet, or in the VocPub &amp; SKOS documentation at https://w3id.org/profile/vocpub/spec, https://www.w3.org/TR/skos-primer/ &amp; https://www.w3.org/TR/skos-reference/.</t>
   </si>
 </sst>
 </file>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
@@ -2466,7 +2466,7 @@
     <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="59"/>
       <c r="B5" s="60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
@@ -2485,7 +2485,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="59"/>
@@ -2496,7 +2496,7 @@
     <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A7" s="59"/>
       <c r="B7" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -2510,14 +2510,14 @@
     <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A8" s="59"/>
       <c r="B8" s="62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="60" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" s="59"/>
       <c r="G8" s="59"/>
@@ -2541,7 +2541,7 @@
     <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A10" s="59"/>
       <c r="B10" s="60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="60"/>
@@ -2555,7 +2555,7 @@
     <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A11" s="59"/>
       <c r="B11" s="62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="60"/>
@@ -2581,7 +2581,7 @@
     <row r="13" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="59"/>
       <c r="B13" s="60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="56"/>
@@ -2595,7 +2595,7 @@
     <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A14" s="59"/>
       <c r="B14" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -3691,8 +3691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E056D66-684B-EA44-9D39-98A26FD38952}">
   <dimension ref="A2:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" x14ac:dyDescent="0.15"/>
@@ -3713,7 +3713,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="365" x14ac:dyDescent="0.15">
@@ -3721,7 +3721,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>30</v>
@@ -3818,7 +3818,7 @@
     <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="8"/>
     </row>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="21" spans="1:3" ht="95" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -3838,94 +3838,94 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
       <c r="B25" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B38" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -3936,62 +3936,62 @@
         <v>13</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="52" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -4002,37 +4002,37 @@
         <v>32</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="88" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="57" x14ac:dyDescent="0.15">
       <c r="B57" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B59" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -4043,22 +4043,22 @@
         <v>18</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -4069,17 +4069,17 @@
         <v>31</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="B8" s="54"/>
       <c r="C8" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>24</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="B9" s="51"/>
       <c r="C9" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>24</v>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>25</v>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>11</v>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>3</v>
@@ -4254,74 +4254,74 @@
     </row>
     <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="54"/>
       <c r="C16" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="38" x14ac:dyDescent="0.15">
       <c r="A18" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="55"/>
       <c r="C18" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -7345,66 +7345,66 @@
         <v>16</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>66</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="L2" s="31" t="s">
         <v>168</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="271" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>128</v>
-      </c>
       <c r="D3" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J3" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="L3" s="60" t="s">
         <v>171</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -7754,7 +7754,7 @@
         <v>63</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="20" customFormat="1" ht="266" x14ac:dyDescent="0.15">
@@ -7767,10 +7767,10 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
@@ -7886,16 +7886,16 @@
     <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" s="63"/>
       <c r="B3" s="64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.15">
@@ -9268,13 +9268,13 @@
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -9354,61 +9354,61 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/templates/VocExcel-template-080-GA.xlsx
+++ b/templates/VocExcel-template-080-GA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/work/kurrawong/VocExcel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EEAF50-A665-4C44-B7A1-9645F483EF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60831EE4-79CD-9E41-A05E-4B70E470B9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46740" yWindow="500" windowWidth="40920" windowHeight="27380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="188">
   <si>
     <t>Version:</t>
   </si>
@@ -755,102 +755,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Related Match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = This cell asserts a related or associated relationship between the concepts listed. It's important to note that these concepts aren't close enough to be transitive. e.g. If example 1 is a related match to example 2, and example 2 is a related match of example 3, it does not follow example 1 is a related match of example 3.</t>
-    </r>
-  </si>
-  <si>
     <t>Defining Vocab IRI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Close Match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = Mapping with this cell means the concepts are sufficiently similar that they can be used interchangeably. However, these concepts are not close enough to be transitive amongst each other. e.g. if example 1 is a close match of example 2, and example 2 is a close match of example 3, it does not follow example 1 is a close match of example 3.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Exact Match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = This is a subset of a close match. Concepts in this cell are to be added if they are sufficiently similar enough to be used interchangeably. However, this is a higher degree of closeness than closeMatch and allows transitivity between exact matches. e.g. if example 1 is an exact match of example 2, and example 2 is an exact match of example 3, it follows example 1 is an exact match of example 3.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Broader Match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = Broader match allows the user to assert that a concept is broader in meaning to another concept. e.g. a strawberry has a broader concept of fruit. This is the inverse of a narrower property. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Narrower Match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = Narrower match allows the user to assert a concept is narrower in meaning to another concept. e.g. fruit has a narrower concept of strawberries. This is the inverse of a broader property.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1633,6 +1538,150 @@
   <si>
     <t>This workbook is designed to allow for the creation of simple vocabularies according to the VocPub Profile of the SKOS data model. It doesn't allow you to do everything SKOS can do, but it can help you create most of the core SKOS elements - a ConceptsScheme for the vocabulary, Concepts, their labels and relations and grouping of Concepts in Collections.
 To understand what particular properties are, e.g. skos:exactMatch, or how to use them, read the notes here, the per-cell notes in some of the Sheets themselves, e.g. the Concept Scheme sheet, or in the VocPub &amp; SKOS documentation at https://w3id.org/profile/vocpub/spec, https://www.w3.org/TR/skos-primer/ &amp; https://www.w3.org/TR/skos-reference/.</t>
+  </si>
+  <si>
+    <t>This is for related concepts between vocabularies, not just within this vocabulary. The value expected is therefore the IRI of an external concept.</t>
+  </si>
+  <si>
+    <t>This is for closely related concepts between vocabularies, not just within this vocabulary. The value expected is therefore the IRI of an external concept.</t>
+  </si>
+  <si>
+    <t>This is for xactly matching concepts between vocabularies, not just within this vocabulary. The value expected is therefore the IRI of an external concept.</t>
+  </si>
+  <si>
+    <t>This is the same as narrower within one vocabulary but use to link to concepts in another vocabulary.</t>
+  </si>
+  <si>
+    <t>This is the same as broader within one vocabulary but use to link to concepts in another vocabulary.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Related Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = This is for related concepts </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>between vocabularies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>, not just within this vocabulary. The value expected is therefore the IRI of an external concept.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Close Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = This is for closely related concepts between vocabularies, not just within this vocabulary. The value expected is therefore the IRI of an external concept.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Exact Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> =  This is for xactly matching concepts between vocabularies, not just within this vocabulary. The value expected is therefore the IRI of an external concept.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Broader Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = This is the same as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>broader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> within one vocabulary but use to link to concepts in another vocabulary.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Narrower Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = This is the same as narrower within one vocabulary but use to link to concepts in another vocabulary.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1642,7 +1691,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1856,6 +1905,12 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial (Body)"/>
+    </font>
+    <font>
+      <i/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial (Body)"/>
@@ -2455,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
@@ -2466,7 +2521,7 @@
     <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="59"/>
       <c r="B5" s="60" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
@@ -2496,7 +2551,7 @@
     <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A7" s="59"/>
       <c r="B7" s="60" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -2510,7 +2565,7 @@
     <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A8" s="59"/>
       <c r="B8" s="62" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="60" t="s">
@@ -2541,7 +2596,7 @@
     <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A10" s="59"/>
       <c r="B10" s="60" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="60"/>
@@ -2555,7 +2610,7 @@
     <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A11" s="59"/>
       <c r="B11" s="62" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="60"/>
@@ -2581,7 +2636,7 @@
     <row r="13" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="59"/>
       <c r="B13" s="60" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="56"/>
@@ -2595,7 +2650,7 @@
     <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A14" s="59"/>
       <c r="B14" s="62" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -3691,8 +3746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E056D66-684B-EA44-9D39-98A26FD38952}">
   <dimension ref="A2:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" x14ac:dyDescent="0.15"/>
@@ -3713,7 +3768,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="365" x14ac:dyDescent="0.15">
@@ -3844,88 +3899,88 @@
     <row r="24" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
       <c r="B25" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B38" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -3941,98 +3996,98 @@
     </row>
     <row r="41" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="52" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" s="7"/>
     </row>
-    <row r="53" spans="1:2" ht="86" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="88" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="57" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="7" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B59" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -4043,22 +4098,22 @@
         <v>18</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -4069,17 +4124,17 @@
         <v>31</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4198,7 +4253,7 @@
       </c>
       <c r="B8" s="54"/>
       <c r="C8" s="33" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>24</v>
@@ -4210,7 +4265,7 @@
       </c>
       <c r="B9" s="51"/>
       <c r="C9" s="33" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>24</v>
@@ -4222,7 +4277,7 @@
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="33" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>25</v>
@@ -4234,7 +4289,7 @@
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>11</v>
@@ -4246,7 +4301,7 @@
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="33" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>3</v>
@@ -4261,7 +4316,7 @@
         <v>85</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -4270,7 +4325,7 @@
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="33" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>92</v>
@@ -4282,7 +4337,7 @@
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="33" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>93</v>
@@ -4294,7 +4349,7 @@
       </c>
       <c r="B16" s="54"/>
       <c r="C16" s="33" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>94</v>
@@ -4306,7 +4361,7 @@
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="33" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>82</v>
@@ -4314,14 +4369,14 @@
     </row>
     <row r="18" spans="1:4" ht="38" x14ac:dyDescent="0.15">
       <c r="A18" s="29" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B18" s="55"/>
       <c r="C18" s="33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -7354,19 +7409,19 @@
         <v>84</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="271" customHeight="1" x14ac:dyDescent="0.15">
@@ -7374,37 +7429,37 @@
         <v>86</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>85</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K3" s="60" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L3" s="60" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -7707,7 +7762,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7754,23 +7809,33 @@
         <v>63</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="20" customFormat="1" ht="266" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="B3" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>182</v>
+      </c>
       <c r="G3" s="46" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
@@ -7886,16 +7951,16 @@
     <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" s="63"/>
       <c r="B3" s="64" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.15">
@@ -9421,15 +9486,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CE8352A0AF1CD4AB9B3521FB05BB06E" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad776eddaa4c2424eb5fa9eef7239753">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcd33c6e-30cb-4633-b8ec-d716de95c77b" xmlns:ns3="cc9fd5b5-cf46-4eda-9201-7118bc1c1603" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03cb13ad1de5dce1c8a6420670aeaf6" ns2:_="" ns3:_="">
     <xsd:import namespace="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
@@ -9666,15 +9722,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C5B03A-DD20-4DDE-9069-342AD74757E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9691,4 +9748,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/VocExcel-template-080-GA.xlsx
+++ b/templates/VocExcel-template-080-GA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/work/kurrawong/VocExcel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60831EE4-79CD-9E41-A05E-4B70E470B9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7F513D-FC1A-CE4B-BBA8-3AE3D42861F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46740" yWindow="500" windowWidth="40920" windowHeight="27380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46740" yWindow="500" windowWidth="40920" windowHeight="27380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -546,10 +546,6 @@
     <t>An optional hyperlink to or textual description of source information</t>
   </si>
   <si>
-    <t>The unique identifier for this Concept.
-May be a full IRI or a prefixed IRI with the prefix taken from the Prefixes tab</t>
-  </si>
-  <si>
     <t>ex</t>
   </si>
   <si>
@@ -713,46 +709,8 @@
     <t>Field Values</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Vocabulary IRI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>* = The IRI referring to this specific vocabulary. This must be a valid URI. Likely you will have this URI supplied (e.g. https://linked.data.gov.au/def/ or http://pid.geoscience.gov.au/def/voc/ . You can use a fake value, as long as it's a valid URI, to be replaced later (e.g. http://example.com/def/v1 ). Background Note: an IRI (International Resource Identifier) is like a URI (Uniform Reference Identifier) but with more permissible characters. Additional Note, this link does not have to end with a forward slash. Note, you can use this IRI with the prefix sheet with terminology like ex:example. Refer to the prefix sheet column below.</t>
-    </r>
-  </si>
-  <si>
     <t>This section described each of the fields that are needed for the ConceptScheme, Concepts and all other vocabulary elements. There are additional notes next to most fields on their individual sheets also.
 Starred fields are mandatory.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Concept IRI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>* = Must be a valid URI. Often this is based on the Vocabulary URI, e.g. if the vocab URI is https://example.com/def/rocks, the Concept URI might be https://example.com/def/rocks/metamorphic. When Concepts are borrowed from other vocabularies, the URI must be the URI from the original vocabulary. Note, you can use this IRI with the prefix sheet with terminology like ex:example. Refer to the prefix sheet column below</t>
-    </r>
   </si>
   <si>
     <t>Defining Vocab IRI</t>
@@ -1079,25 +1037,6 @@
         <rFont val="Arial (Body)"/>
       </rPr>
       <t>= An optional statement about the origin of this specific Concept</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Defining Vocabulary URI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = If this Concept is imported from another vocabulary, this should be that vocabulary's IRI</t>
     </r>
   </si>
   <si>
@@ -1682,6 +1621,56 @@
       </rPr>
       <t xml:space="preserve"> = This is the same as narrower within one vocabulary but use to link to concepts in another vocabulary.</t>
     </r>
+  </si>
+  <si>
+    <t>Defining Vocabulary IRI = If this Concept is imported from another vocabulary, this should be that vocabulary's IRI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Concept IRI*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = Must be a valid IRI. Often this is based on the Vocabulary IRI, e.g. if the vocab IRI is https://example.com/def/rocks, the Concept IRI might be https://example.com/def/rocks/metamorphic. 
+Better than creating a Concept IRI from a Concept's prefLabel, as per 'metamorphic' above, is to use an ID generator of some kind to make opaque, robust, IDs that are guarenteed to be unique within the vocabulary and possibly gobally. Use the 'Online UUID Generator' at https://www.uuidgenerator.net/. 
+When Concepts are borrowed from other vocabularies, the IRI must be the IRI from the original vocabulary. Note, you can use this IRI with the prefix sheet with terminology like ex:example. Refer to the prefix sheet column below.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Vocabulary IRI*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = The IRI referring to this specific vocabulary. This must be a valid IRI. Likely you will have this IRI supplied where it has been created within a persisted IRI namespace, e.g. https://linked.data.gov.au/def/ or http://pid.geoscience.gov.au/def/voc/ . 
+You can use a fake value, as long as it's a valid IRI, to be replaced later (e.g. http://example.com/def/v1 ). 
+Background Note: an IRI (International Resource Identifier) is like a IRI (Uniform Reference Identifier) but with more permissible characters. Additional Note, this link does not have to end with a forward slash. Note, you can use this IRI with the prefix sheet with terminology like ex:example. Refer to the prefix sheet column below.</t>
+    </r>
+  </si>
+  <si>
+    <t>The unique identifier for this Concept.
+May be a full IRI or a prefixed IRI with the prefix taken from the Prefixes tab.
+Consider using opaque, universally unique IDs within the IRI, generated by https://www.uuidgenerator.net.</t>
   </si>
 </sst>
 </file>
@@ -2510,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
@@ -2521,7 +2510,7 @@
     <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="59"/>
       <c r="B5" s="60" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
@@ -2540,7 +2529,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="59"/>
@@ -2551,7 +2540,7 @@
     <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A7" s="59"/>
       <c r="B7" s="60" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -2565,14 +2554,14 @@
     <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A8" s="59"/>
       <c r="B8" s="62" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="60" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="59"/>
       <c r="G8" s="59"/>
@@ -2596,7 +2585,7 @@
     <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A10" s="59"/>
       <c r="B10" s="60" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="60"/>
@@ -2610,7 +2599,7 @@
     <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A11" s="59"/>
       <c r="B11" s="62" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="60"/>
@@ -2636,7 +2625,7 @@
     <row r="13" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="59"/>
       <c r="B13" s="60" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="56"/>
@@ -2650,7 +2639,7 @@
     <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A14" s="59"/>
       <c r="B14" s="62" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -3746,8 +3735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E056D66-684B-EA44-9D39-98A26FD38952}">
   <dimension ref="A2:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" x14ac:dyDescent="0.15"/>
@@ -3768,7 +3757,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="365" x14ac:dyDescent="0.15">
@@ -3776,7 +3765,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>30</v>
@@ -3873,7 +3862,7 @@
     <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="8"/>
     </row>
@@ -3882,171 +3871,171 @@
     </row>
     <row r="21" spans="1:3" ht="95" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:3" ht="141" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="209" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
       <c r="B25" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B38" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:2" ht="104" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" ht="209" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="52" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -4057,37 +4046,37 @@
         <v>32</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B59" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -4098,22 +4087,22 @@
         <v>18</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -4124,17 +4113,17 @@
         <v>31</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4253,7 +4242,7 @@
       </c>
       <c r="B8" s="54"/>
       <c r="C8" s="33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>24</v>
@@ -4265,7 +4254,7 @@
       </c>
       <c r="B9" s="51"/>
       <c r="C9" s="33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>24</v>
@@ -4277,7 +4266,7 @@
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="33" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>25</v>
@@ -4289,7 +4278,7 @@
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>11</v>
@@ -4301,7 +4290,7 @@
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>3</v>
@@ -4316,19 +4305,19 @@
         <v>85</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.15">
@@ -4337,22 +4326,22 @@
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="54"/>
       <c r="C16" s="33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.15">
@@ -4361,7 +4350,7 @@
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>82</v>
@@ -4369,14 +4358,14 @@
     </row>
     <row r="18" spans="1:4" ht="38" x14ac:dyDescent="0.15">
       <c r="A18" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B18" s="55"/>
       <c r="C18" s="33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -7354,9 +7343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B2936F-06B6-364A-893D-D48542B6FA7F}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -7409,57 +7398,57 @@
         <v>84</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="271" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>85</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K3" s="60" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L3" s="60" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -7809,7 +7798,7 @@
         <v>63</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="20" customFormat="1" ht="266" x14ac:dyDescent="0.15">
@@ -7817,25 +7806,25 @@
         <v>53</v>
       </c>
       <c r="B3" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>182</v>
-      </c>
       <c r="G3" s="46" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
@@ -7951,16 +7940,16 @@
     <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" s="63"/>
       <c r="B3" s="64" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.15">
@@ -9333,13 +9322,13 @@
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>87</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -9419,7 +9408,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -9486,6 +9475,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CE8352A0AF1CD4AB9B3521FB05BB06E" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad776eddaa4c2424eb5fa9eef7239753">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcd33c6e-30cb-4633-b8ec-d716de95c77b" xmlns:ns3="cc9fd5b5-cf46-4eda-9201-7118bc1c1603" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03cb13ad1de5dce1c8a6420670aeaf6" ns2:_="" ns3:_="">
     <xsd:import namespace="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
@@ -9722,16 +9720,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C5B03A-DD20-4DDE-9069-342AD74757E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9748,12 +9745,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/templates/VocExcel-template-080-GA.xlsx
+++ b/templates/VocExcel-template-080-GA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/work/kurrawong/VocExcel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7F513D-FC1A-CE4B-BBA8-3AE3D42861F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F720B22-C97E-6148-B73F-EAC07BA43F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46740" yWindow="500" windowWidth="40920" windowHeight="27380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46740" yWindow="500" windowWidth="40920" windowHeight="27380" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -1953,7 +1953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2158,6 +2158,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7343,7 +7346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B2936F-06B6-364A-893D-D48542B6FA7F}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -9289,8 +9292,8 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9324,7 +9327,7 @@
       <c r="A3" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="71" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="37" t="s">
@@ -9385,9 +9388,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{77DE736D-3696-1C43-8C7E-5C6AEF322B54}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
